--- a/myapp/document/01_DB/00_TABLE_DEFINITION/user_access(ユーザーアクセス).xlsx
+++ b/myapp/document/01_DB/00_TABLE_DEFINITION/user_access(ユーザーアクセス).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\ison\webAppTemplate\repos\php\document\10_設計\30_DB設計\00_テーブル定義\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\ison\webAppTemplate\repos\myapp\document\01_DB\00_TABLE_DEFINITION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F64C1D9-F0E3-4375-B1B5-C180DACB73D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A960C301-4B3E-4FAF-B2A6-30C519C3B085}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="ユーザー" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">ユーザー!$A$1:$I$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">ユーザー!$A$1:$I$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">改訂履歴!$A$1:$AZ$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -29,7 +29,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
   <si>
     <t>テーブル定義</t>
     <phoneticPr fontId="4"/>
@@ -325,19 +327,6 @@
     <t>auth_failed_datetime</t>
   </si>
   <si>
-    <t>削除フラグ</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>delete_flag</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
     <t>ログイン成功時の日時</t>
     <rPh sb="4" eb="6">
       <t>セイコウ</t>
@@ -364,21 +353,34 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>0:有効、1:無効</t>
-    <rPh sb="2" eb="4">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ムコウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>ユーザーアクセス</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>user_access</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>user.user_id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>オプション</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ON DELETE CASCADE ON UPDATE CASCADE</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -520,7 +522,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -767,6 +769,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -779,7 +818,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -868,10 +907,6 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
@@ -889,6 +924,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -997,7 +1035,24 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1727,6 +1782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AZ50"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -4479,6 +4535,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AZ104"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -10590,15 +10647,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C32" sqref="C32"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -10626,7 +10683,7 @@
       </c>
       <c r="G1" s="60"/>
       <c r="H1" s="60"/>
-      <c r="I1" s="34" t="str">
+      <c r="I1" s="33" t="str">
         <f>表紙!AL41</f>
         <v>MyApp</v>
       </c>
@@ -10642,7 +10699,7 @@
       </c>
       <c r="G2" s="60"/>
       <c r="H2" s="60"/>
-      <c r="I2" s="34" t="str">
+      <c r="I2" s="33" t="str">
         <f>表紙!AL43</f>
         <v>MyApp</v>
       </c>
@@ -10653,7 +10710,7 @@
       </c>
       <c r="B4" s="58"/>
       <c r="C4" s="59" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D4" s="59"/>
       <c r="E4" s="59"/>
@@ -10668,7 +10725,7 @@
       </c>
       <c r="B5" s="58"/>
       <c r="C5" s="59" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D5" s="59"/>
       <c r="E5" s="59"/>
@@ -10769,7 +10826,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
-        <f t="shared" ref="A12:A19" si="0">ROW()-10</f>
+        <f t="shared" ref="A12:A18" si="0">ROW()-10</f>
         <v>2</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -10786,7 +10843,7 @@
       <c r="G12" s="25"/>
       <c r="H12" s="23"/>
       <c r="I12" s="26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -10830,7 +10887,7 @@
       <c r="G14" s="25"/>
       <c r="H14" s="23"/>
       <c r="I14" s="26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -10929,104 +10986,102 @@
       <c r="H18" s="25"/>
       <c r="I18" s="26"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="30">
-        <v>0</v>
-      </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="26" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="71"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20">
+        <v>1</v>
+      </c>
+      <c r="B22" s="26" t="str">
+        <f>IF(C22="","","FK_"&amp;UPPER($C$5)&amp;"_"&amp;C22)</f>
+        <v>FK_USER_ACCESS_user_id</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="71"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
+      <c r="E22" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="26"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
-        <f>ROW()-22</f>
-        <v>1</v>
+        <f>A22+1</f>
+        <v>2</v>
       </c>
       <c r="B23" s="26" t="str">
-        <f>IF(C23="","","FK_"&amp;UPPER($C$5)&amp;"_"&amp;UPPER(C23))</f>
+        <f t="shared" ref="B23:B26" si="1">IF(C23="","","FK_"&amp;UPPER($C$5)&amp;"_"&amp;C23)</f>
         <v/>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="26"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
-        <f>A23+1</f>
-        <v>2</v>
+        <f t="shared" ref="A24:A26" si="2">A23+1</f>
+        <v>3</v>
       </c>
       <c r="B24" s="26" t="str">
-        <f t="shared" ref="B24:B27" si="1">IF(C24="","","FK_"&amp;UPPER($C$5)&amp;"_"&amp;UPPER(C24))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="26"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
-        <f t="shared" ref="A25:A27" si="2">A24+1</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="B25" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11034,16 +11089,16 @@
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="26"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B26" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11051,67 +11106,69 @@
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="20">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="B27" s="26" t="str">
-        <f t="shared" si="1"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="26"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="71"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="79"/>
+      <c r="D29" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="79"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="30">
+        <v>1</v>
+      </c>
+      <c r="B30" s="52" t="str">
+        <f t="shared" ref="B30" si="3">IF(D30="","","IDX_"&amp;UPPER($C$5)&amp;"_"&amp;TEXT(A30,"00"))</f>
         <v/>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="71"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="74"/>
-      <c r="D30" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="74"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="56"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="31">
-        <f>ROW()-30</f>
-        <v>1</v>
-      </c>
-      <c r="B31" s="52"/>
+      <c r="A31" s="20">
+        <f>A30+1</f>
+        <v>2</v>
+      </c>
+      <c r="B31" s="52" t="str">
+        <f t="shared" ref="B31:B34" si="4">IF(D31="","","IDX_"&amp;UPPER($C$5)&amp;"_"&amp;TEXT(A31,"00"))</f>
+        <v/>
+      </c>
       <c r="C31" s="53"/>
       <c r="D31" s="32"/>
       <c r="E31" s="54"/>
@@ -11123,14 +11180,14 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <f>A31+1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B32" s="52" t="str">
-        <f t="shared" ref="B32:B35" si="3">IF(D32="","","IDX_"&amp;UPPER($C$5)&amp;"_"&amp;TEXT(A32,"00"))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C32" s="53"/>
-      <c r="D32" s="33"/>
+      <c r="D32" s="32"/>
       <c r="E32" s="54"/>
       <c r="F32" s="55"/>
       <c r="G32" s="55"/>
@@ -11140,14 +11197,14 @@
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
         <f>A32+1</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B33" s="52" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C33" s="53"/>
-      <c r="D33" s="33"/>
+      <c r="D33" s="32"/>
       <c r="E33" s="54"/>
       <c r="F33" s="55"/>
       <c r="G33" s="55"/>
@@ -11157,54 +11214,37 @@
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <f>A33+1</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B34" s="52" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C34" s="53"/>
-      <c r="D34" s="33"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="54"/>
       <c r="F34" s="55"/>
       <c r="G34" s="55"/>
       <c r="H34" s="55"/>
       <c r="I34" s="56"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="20">
-        <f>A34+1</f>
-        <v>5</v>
-      </c>
-      <c r="B35" s="52" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="C35" s="53"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="56"/>
-    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" autoFilter="0"/>
   <mergeCells count="39">
-    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E29:I29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:I30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A20:I20"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="E9:E10"/>
@@ -11222,17 +11262,17 @@
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="E32:I32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="E33:I33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <conditionalFormatting sqref="B23:B27">
+  <conditionalFormatting sqref="B22:B26">
     <cfRule type="uniqueValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -11240,7 +11280,7 @@
   <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="20" max="8" man="1"/>
+    <brk id="19" max="8" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
